--- a/criardataset/ojb/Yochanan III_ordenado.xlsx
+++ b/criardataset/ojb/Yochanan III_ordenado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Livro</t>
   </si>
@@ -43,6 +43,12 @@
     <t>Ibn</t>
   </si>
   <si>
+    <t>Onkelos</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
     <t>Exodus</t>
   </si>
   <si>
@@ -56,6 +62,12 @@
   </si>
   <si>
     <t>['פקד פקדתי אתכם, seeing that you are their descendants.', 'ואת העשוי לכם במצרים, seeing that I hate violence and cruelty.\n']</t>
+  </si>
+  <si>
+    <t>“Go, gather the elders of Yisrael, and say to them, ‘Adonoy, the God of your fathers appeared [&lt;b&gt;became revealed&lt;/b&gt;] to me—the God of Avraham, Yitzchok and Yaakov—saying, “I have indeed been mindful of you, regarding that which is being done to you in Egypt.</t>
+  </si>
+  <si>
+    <t>Go, and assemble the elders of Israel, and say to them, The Lord God of your fathers hath appeared unto me, the God of Abraham, Izhak, and Jakob, saying, Remembering, I have remembered you, and the injury that is done you in Mizraim;</t>
   </si>
 </sst>
 </file>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,10 +459,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -459,16 +477,22 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
